--- a/artfynd/Hötjärnberget artfynd.xlsx
+++ b/artfynd/Hötjärnberget artfynd.xlsx
@@ -1115,32 +1115,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56824869</v>
+        <v>56824824</v>
       </c>
       <c r="B6" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>684918</v>
+        <v>685178</v>
       </c>
       <c r="R6" t="n">
-        <v>7095587</v>
+        <v>7095579</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1329,32 +1329,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56824824</v>
+        <v>56824869</v>
       </c>
       <c r="B8" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>685178</v>
+        <v>684918</v>
       </c>
       <c r="R8" t="n">
-        <v>7095579</v>
+        <v>7095587</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56824798</v>
+        <v>56824800</v>
       </c>
       <c r="B10" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1554,21 +1554,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>685574</v>
+        <v>685567</v>
       </c>
       <c r="R10" t="n">
-        <v>7095206</v>
+        <v>7095234</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56824800</v>
+        <v>56824798</v>
       </c>
       <c r="B11" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1661,21 +1661,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>685567</v>
+        <v>685574</v>
       </c>
       <c r="R11" t="n">
-        <v>7095234</v>
+        <v>7095206</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -3285,32 +3285,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56824833</v>
+        <v>56824871</v>
       </c>
       <c r="B26" t="n">
-        <v>57657</v>
+        <v>98361</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3320,10 +3320,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>685325</v>
+        <v>684938</v>
       </c>
       <c r="R26" t="n">
-        <v>7095451</v>
+        <v>7095610</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3370,11 +3370,6 @@
       <c r="AI26" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3392,32 +3387,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56824871</v>
+        <v>56824833</v>
       </c>
       <c r="B27" t="n">
-        <v>98361</v>
+        <v>57657</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3427,10 +3422,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>684938</v>
+        <v>685325</v>
       </c>
       <c r="R27" t="n">
-        <v>7095610</v>
+        <v>7095451</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3477,6 +3472,11 @@
       <c r="AI27" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3494,32 +3494,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56824812</v>
+        <v>56824831</v>
       </c>
       <c r="B28" t="n">
-        <v>98361</v>
+        <v>80955</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>1049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>685354</v>
+        <v>685275</v>
       </c>
       <c r="R28" t="n">
-        <v>7095296</v>
+        <v>7095430</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3579,6 +3579,11 @@
       <c r="AI28" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>högstubbe tall</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3596,32 +3601,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56824831</v>
+        <v>56824834</v>
       </c>
       <c r="B29" t="n">
-        <v>80955</v>
+        <v>92535</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1049</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3631,7 +3636,7 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>685275</v>
+        <v>685531</v>
       </c>
       <c r="R29" t="n">
         <v>7095430</v>
@@ -3681,11 +3686,6 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>högstubbe tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3703,32 +3703,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56824834</v>
+        <v>56824874</v>
       </c>
       <c r="B30" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>685531</v>
+        <v>685011</v>
       </c>
       <c r="R30" t="n">
-        <v>7095430</v>
+        <v>7095785</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3788,6 +3788,11 @@
       <c r="AI30" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3805,10 +3810,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56824786</v>
+        <v>56824813</v>
       </c>
       <c r="B31" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3816,21 +3821,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3840,10 +3845,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>685877</v>
+        <v>685343</v>
       </c>
       <c r="R31" t="n">
-        <v>7095154</v>
+        <v>7095317</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3894,7 +3899,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -3912,10 +3917,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56824874</v>
+        <v>56824790</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3923,21 +3928,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3947,10 +3952,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>685011</v>
+        <v>685634</v>
       </c>
       <c r="R32" t="n">
-        <v>7095785</v>
+        <v>7095215</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4001,7 +4006,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4019,10 +4024,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56824813</v>
+        <v>56824786</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4030,21 +4035,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4054,10 +4059,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>685343</v>
+        <v>685877</v>
       </c>
       <c r="R33" t="n">
-        <v>7095317</v>
+        <v>7095154</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4108,7 +4113,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4126,32 +4131,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56824790</v>
+        <v>56824812</v>
       </c>
       <c r="B34" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4161,10 +4166,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>685634</v>
+        <v>685354</v>
       </c>
       <c r="R34" t="n">
-        <v>7095215</v>
+        <v>7095296</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4211,11 +4216,6 @@
       <c r="AI34" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56824823</v>
+        <v>56824829</v>
       </c>
       <c r="B46" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5398,21 +5398,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>685044</v>
+        <v>685219</v>
       </c>
       <c r="R46" t="n">
-        <v>7095491</v>
+        <v>7095463</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56824829</v>
+        <v>56824823</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5505,21 +5505,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5529,10 +5529,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>685219</v>
+        <v>685044</v>
       </c>
       <c r="R47" t="n">
-        <v>7095463</v>
+        <v>7095491</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6131,32 +6131,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56824809</v>
+        <v>56824804</v>
       </c>
       <c r="B53" t="n">
-        <v>91263</v>
+        <v>80112</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>685441</v>
+        <v>685577</v>
       </c>
       <c r="R53" t="n">
-        <v>7095291</v>
+        <v>7095238</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56824797</v>
+        <v>56824809</v>
       </c>
       <c r="B55" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6356,21 +6356,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>685577</v>
+        <v>685441</v>
       </c>
       <c r="R55" t="n">
-        <v>7095199</v>
+        <v>7095291</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56824862</v>
+        <v>56824797</v>
       </c>
       <c r="B56" t="n">
         <v>80083</v>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>684797</v>
+        <v>685577</v>
       </c>
       <c r="R56" t="n">
-        <v>7095623</v>
+        <v>7095199</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6559,32 +6559,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56824804</v>
+        <v>56824862</v>
       </c>
       <c r="B57" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>685577</v>
+        <v>684797</v>
       </c>
       <c r="R57" t="n">
-        <v>7095238</v>
+        <v>7095623</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -9646,48 +9646,60 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>56824783</v>
+        <v>120279029</v>
       </c>
       <c r="B86" t="n">
-        <v>95594</v>
+        <v>98361</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Skog, Ång</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>685894</v>
+        <v>685668</v>
       </c>
       <c r="R86" t="n">
-        <v>7095123</v>
+        <v>7095162</v>
       </c>
       <c r="S86" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -9711,12 +9723,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9725,55 +9737,51 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
+      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
-      </c>
-      <c r="AI86" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Albin Larsson Ekström</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Albin Larsson Ekström</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>56824863</v>
+        <v>56824783</v>
       </c>
       <c r="B87" t="n">
-        <v>80083</v>
+        <v>95594</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>2809</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9783,10 +9791,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>684829</v>
+        <v>685894</v>
       </c>
       <c r="R87" t="n">
-        <v>7095603</v>
+        <v>7095123</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9833,11 +9841,6 @@
       <c r="AI87" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -9855,10 +9858,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>56824853</v>
+        <v>56824785</v>
       </c>
       <c r="B88" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9866,21 +9869,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9890,10 +9893,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>684837</v>
+        <v>685889</v>
       </c>
       <c r="R88" t="n">
-        <v>7095870</v>
+        <v>7095140</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9944,7 +9947,7 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -9962,10 +9965,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>56824785</v>
+        <v>56824863</v>
       </c>
       <c r="B89" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9973,21 +9976,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9997,10 +10000,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>685889</v>
+        <v>684829</v>
       </c>
       <c r="R89" t="n">
-        <v>7095140</v>
+        <v>7095603</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10051,7 +10054,7 @@
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -10069,60 +10072,48 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>120279029</v>
+        <v>56824853</v>
       </c>
       <c r="B90" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Skog, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>685668</v>
+        <v>684837</v>
       </c>
       <c r="R90" t="n">
-        <v>7095162</v>
+        <v>7095870</v>
       </c>
       <c r="S90" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -10146,12 +10137,12 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10160,19 +10151,28 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Albin Larsson Ekström</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Albin Larsson Ekström</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>

--- a/artfynd/Hötjärnberget artfynd.xlsx
+++ b/artfynd/Hötjärnberget artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56824827</v>
+        <v>56824857</v>
       </c>
       <c r="B2" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>685176</v>
+        <v>684806</v>
       </c>
       <c r="R2" t="n">
-        <v>7095463</v>
+        <v>7095721</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>brandstubbe omgärdade av 3 gammeltallar</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56824857</v>
+        <v>56824827</v>
       </c>
       <c r="B3" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>684806</v>
+        <v>685176</v>
       </c>
       <c r="R3" t="n">
-        <v>7095721</v>
+        <v>7095463</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe omgärdade av 3 gammeltallar</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56824818</v>
+        <v>56824798</v>
       </c>
       <c r="B9" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1447,21 +1447,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684974</v>
+        <v>685574</v>
       </c>
       <c r="R9" t="n">
-        <v>7095574</v>
+        <v>7095206</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56824798</v>
+        <v>56824818</v>
       </c>
       <c r="B11" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1661,21 +1661,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>685574</v>
+        <v>684974</v>
       </c>
       <c r="R11" t="n">
-        <v>7095206</v>
+        <v>7095574</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89046255</v>
+        <v>89046259</v>
       </c>
       <c r="B18" t="n">
-        <v>75066</v>
+        <v>80043</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>492</v>
+        <v>229497</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>684817</v>
+        <v>684835</v>
       </c>
       <c r="R18" t="n">
-        <v>7095787</v>
+        <v>7095545</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>lövrik, halvfuktig grannaturskog i nordlut</t>
+          <t>lövrik, luckig gammal barrnaturskog</t>
         </is>
       </c>
       <c r="AN18" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1 substratenheter # murken ved i stamärr vid basen av gammal björk</t>
+          <t>1 substratenheter # gammal sälg, 30 cm i diameter, lutande</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2514,54 +2514,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89046256</v>
+        <v>89046255</v>
       </c>
       <c r="B19" t="n">
-        <v>92197</v>
+        <v>75066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4787</v>
+        <v>492</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>684780</v>
+        <v>684817</v>
       </c>
       <c r="R19" t="n">
-        <v>7095590</v>
+        <v>7095787</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2607,7 +2598,15 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>gammal örtrik grannaturskog med gamla lövträd</t>
+          <t>lövrik, halvfuktig grannaturskog i nordlut</t>
+        </is>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>1 substratenheter # murken ved i stamärr vid basen av gammal björk</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2629,10 +2628,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89046259</v>
+        <v>89046256</v>
       </c>
       <c r="B20" t="n">
-        <v>80043</v>
+        <v>92197</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2640,34 +2639,43 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229497</v>
+        <v>4787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>Kühner &amp; Romagn.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>684835</v>
+        <v>684780</v>
       </c>
       <c r="R20" t="n">
-        <v>7095545</v>
+        <v>7095590</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2713,15 +2721,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>lövrik, luckig gammal barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>1 substratenheter # gammal sälg, 30 cm i diameter, lutande</t>
+          <t>gammal örtrik grannaturskog med gamla lövträd</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2743,45 +2743,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56824787</v>
+        <v>89046260</v>
       </c>
       <c r="B21" t="n">
-        <v>80083</v>
+        <v>91819</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>685792</v>
+        <v>684852</v>
       </c>
       <c r="R21" t="n">
-        <v>7095173</v>
+        <v>7095559</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2827,55 +2827,62 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
+          <t>lövrik, luckig gammal barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>1 substratenheter # gammal sälg, 25 cm i diameter</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56824836</v>
+        <v>56824840</v>
       </c>
       <c r="B22" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2885,10 +2892,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>685530</v>
+        <v>685646</v>
       </c>
       <c r="R22" t="n">
-        <v>7095541</v>
+        <v>7095420</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2957,10 +2964,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56824835</v>
+        <v>56824787</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2968,21 +2975,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2992,10 +2999,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>685543</v>
+        <v>685792</v>
       </c>
       <c r="R23" t="n">
-        <v>7095491</v>
+        <v>7095173</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3046,7 +3053,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3064,32 +3071,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56824840</v>
+        <v>56824836</v>
       </c>
       <c r="B24" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3099,10 +3106,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>685646</v>
+        <v>685530</v>
       </c>
       <c r="R24" t="n">
-        <v>7095420</v>
+        <v>7095541</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3171,45 +3178,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>89046260</v>
+        <v>56824835</v>
       </c>
       <c r="B25" t="n">
-        <v>91819</v>
+        <v>78980</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>760</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hötjärnsbergets nordsida, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>684852</v>
+        <v>685543</v>
       </c>
       <c r="R25" t="n">
-        <v>7095559</v>
+        <v>7095491</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3236,12 +3243,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3255,33 +3262,26 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>lövrik, luckig gammal barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AN25" t="n">
-        <v>1</v>
+          <t>barrnaturskog</t>
+        </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal sälg, 25 cm i diameter</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3494,32 +3494,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56824831</v>
+        <v>56824834</v>
       </c>
       <c r="B28" t="n">
-        <v>80955</v>
+        <v>92535</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1049</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>685275</v>
+        <v>685531</v>
       </c>
       <c r="R28" t="n">
         <v>7095430</v>
@@ -3579,11 +3579,6 @@
       <c r="AI28" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>högstubbe tall</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3601,32 +3596,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56824834</v>
+        <v>56824874</v>
       </c>
       <c r="B29" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3636,10 +3631,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>685531</v>
+        <v>685011</v>
       </c>
       <c r="R29" t="n">
-        <v>7095430</v>
+        <v>7095785</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3686,6 +3681,11 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56824874</v>
+        <v>56824831</v>
       </c>
       <c r="B30" t="n">
-        <v>78980</v>
+        <v>80955</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3714,21 +3714,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>685011</v>
+        <v>685275</v>
       </c>
       <c r="R30" t="n">
-        <v>7095785</v>
+        <v>7095430</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>högstubbe tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56824813</v>
+        <v>56824790</v>
       </c>
       <c r="B31" t="n">
         <v>80083</v>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>685343</v>
+        <v>685634</v>
       </c>
       <c r="R31" t="n">
-        <v>7095317</v>
+        <v>7095215</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56824790</v>
+        <v>56824813</v>
       </c>
       <c r="B32" t="n">
         <v>80083</v>
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>685634</v>
+        <v>685343</v>
       </c>
       <c r="R32" t="n">
-        <v>7095215</v>
+        <v>7095317</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4330,48 +4330,55 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56824808</v>
+        <v>56202571</v>
       </c>
       <c r="B36" t="n">
-        <v>98361</v>
+        <v>56633</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>100045</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sångsvan</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cygnus cygnus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Hötjärnberget, Övre Nyland, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>685444</v>
+        <v>684943</v>
       </c>
       <c r="R36" t="n">
-        <v>7095311</v>
+        <v>7095874</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4395,12 +4402,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4411,31 +4418,26 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56202571</v>
+        <v>56824795</v>
       </c>
       <c r="B37" t="n">
-        <v>56633</v>
+        <v>80118</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4443,44 +4445,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100045</v>
+        <v>6463</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sångsvan</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cygnus cygnus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Övre Nyland, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>684943</v>
+        <v>685627</v>
       </c>
       <c r="R37" t="n">
-        <v>7095874</v>
+        <v>7095192</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4504,12 +4499,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4520,16 +4515,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -4643,7 +4648,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56824788</v>
+        <v>56824876</v>
       </c>
       <c r="B39" t="n">
         <v>80083</v>
@@ -4678,10 +4683,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>685755</v>
+        <v>685010</v>
       </c>
       <c r="R39" t="n">
-        <v>7095204</v>
+        <v>7095847</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4750,7 +4755,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>56824860</v>
+        <v>56824788</v>
       </c>
       <c r="B40" t="n">
         <v>80083</v>
@@ -4785,10 +4790,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>684802</v>
+        <v>685755</v>
       </c>
       <c r="R40" t="n">
-        <v>7095650</v>
+        <v>7095204</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4857,10 +4862,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56824837</v>
+        <v>56824860</v>
       </c>
       <c r="B41" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4868,21 +4873,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4892,10 +4897,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>685526</v>
+        <v>684802</v>
       </c>
       <c r="R41" t="n">
-        <v>7095623</v>
+        <v>7095650</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4946,7 +4951,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -4964,10 +4969,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>56824876</v>
+        <v>56824825</v>
       </c>
       <c r="B42" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4975,21 +4980,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4999,10 +5004,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>685010</v>
+        <v>685171</v>
       </c>
       <c r="R42" t="n">
-        <v>7095847</v>
+        <v>7095583</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5053,7 +5058,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5071,27 +5076,27 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56824795</v>
+        <v>56824837</v>
       </c>
       <c r="B43" t="n">
-        <v>80118</v>
+        <v>78980</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5106,10 +5111,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>685627</v>
+        <v>685526</v>
       </c>
       <c r="R43" t="n">
-        <v>7095192</v>
+        <v>7095623</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5160,7 +5165,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5178,32 +5183,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56824825</v>
+        <v>56824808</v>
       </c>
       <c r="B44" t="n">
-        <v>82792</v>
+        <v>98361</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5213,10 +5218,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>685171</v>
+        <v>685444</v>
       </c>
       <c r="R44" t="n">
-        <v>7095583</v>
+        <v>7095311</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5263,11 +5268,6 @@
       <c r="AI44" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56824822</v>
+        <v>56824791</v>
       </c>
       <c r="B45" t="n">
-        <v>92535</v>
+        <v>80119</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5296,21 +5296,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>6464</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>685000</v>
+        <v>685634</v>
       </c>
       <c r="R45" t="n">
-        <v>7095521</v>
+        <v>7095215</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5370,6 +5370,11 @@
       <c r="AI45" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5387,10 +5392,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56824829</v>
+        <v>56824823</v>
       </c>
       <c r="B46" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5398,21 +5403,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5422,10 +5427,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>685219</v>
+        <v>685044</v>
       </c>
       <c r="R46" t="n">
-        <v>7095463</v>
+        <v>7095491</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5476,7 +5481,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5494,32 +5499,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56824823</v>
+        <v>56824822</v>
       </c>
       <c r="B47" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5529,10 +5534,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>685044</v>
+        <v>685000</v>
       </c>
       <c r="R47" t="n">
-        <v>7095491</v>
+        <v>7095521</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5579,11 +5584,6 @@
       <c r="AI47" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5601,32 +5601,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56824791</v>
+        <v>56824829</v>
       </c>
       <c r="B48" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>685634</v>
+        <v>685219</v>
       </c>
       <c r="R48" t="n">
-        <v>7095215</v>
+        <v>7095463</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -5708,32 +5708,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56824854</v>
+        <v>56824873</v>
       </c>
       <c r="B49" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>684838</v>
+        <v>684964</v>
       </c>
       <c r="R49" t="n">
-        <v>7095829</v>
+        <v>7095723</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5793,11 +5793,6 @@
       <c r="AI49" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -5815,7 +5810,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56824794</v>
+        <v>56824854</v>
       </c>
       <c r="B50" t="n">
         <v>80083</v>
@@ -5850,10 +5845,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>685627</v>
+        <v>684838</v>
       </c>
       <c r="R50" t="n">
-        <v>7095192</v>
+        <v>7095829</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5922,32 +5917,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56824873</v>
+        <v>56824794</v>
       </c>
       <c r="B51" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5957,10 +5952,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>684964</v>
+        <v>685627</v>
       </c>
       <c r="R51" t="n">
-        <v>7095723</v>
+        <v>7095192</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6007,6 +6002,11 @@
       <c r="AI51" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56824804</v>
+        <v>56824866</v>
       </c>
       <c r="B53" t="n">
-        <v>80112</v>
+        <v>91256</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6142,21 +6142,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>685577</v>
+        <v>684881</v>
       </c>
       <c r="R53" t="n">
-        <v>7095238</v>
+        <v>7095539</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56824866</v>
+        <v>56824804</v>
       </c>
       <c r="B54" t="n">
-        <v>91256</v>
+        <v>80112</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6249,21 +6249,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>684881</v>
+        <v>685577</v>
       </c>
       <c r="R54" t="n">
-        <v>7095539</v>
+        <v>7095238</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56824809</v>
+        <v>56824797</v>
       </c>
       <c r="B55" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6356,21 +6356,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>685441</v>
+        <v>685577</v>
       </c>
       <c r="R55" t="n">
-        <v>7095291</v>
+        <v>7095199</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56824797</v>
+        <v>56824862</v>
       </c>
       <c r="B56" t="n">
         <v>80083</v>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>685577</v>
+        <v>684797</v>
       </c>
       <c r="R56" t="n">
-        <v>7095199</v>
+        <v>7095623</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56824862</v>
+        <v>56824809</v>
       </c>
       <c r="B57" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6570,21 +6570,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>684797</v>
+        <v>685441</v>
       </c>
       <c r="R57" t="n">
-        <v>7095623</v>
+        <v>7095291</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -6778,32 +6778,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56824859</v>
+        <v>56824864</v>
       </c>
       <c r="B59" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6813,10 +6813,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>684806</v>
+        <v>684829</v>
       </c>
       <c r="R59" t="n">
-        <v>7095684</v>
+        <v>7095603</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6992,32 +6992,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56824864</v>
+        <v>56824859</v>
       </c>
       <c r="B61" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7027,10 +7027,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>684829</v>
+        <v>684806</v>
       </c>
       <c r="R61" t="n">
-        <v>7095603</v>
+        <v>7095684</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7213,32 +7213,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>56824855</v>
+        <v>56824830</v>
       </c>
       <c r="B63" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7248,10 +7248,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>684831</v>
+        <v>685248</v>
       </c>
       <c r="R63" t="n">
-        <v>7095817</v>
+        <v>7095440</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7298,6 +7298,11 @@
       <c r="AI63" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -7315,32 +7320,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>56824875</v>
+        <v>56824867</v>
       </c>
       <c r="B64" t="n">
-        <v>96487</v>
+        <v>80083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2869</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7350,10 +7355,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>685024</v>
+        <v>684918</v>
       </c>
       <c r="R64" t="n">
-        <v>7095843</v>
+        <v>7095587</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7400,6 +7405,11 @@
       <c r="AI64" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -7417,32 +7427,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>56824830</v>
+        <v>56824875</v>
       </c>
       <c r="B65" t="n">
-        <v>80083</v>
+        <v>96487</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>2869</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7452,10 +7462,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>685248</v>
+        <v>685024</v>
       </c>
       <c r="R65" t="n">
-        <v>7095440</v>
+        <v>7095843</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7502,11 +7512,6 @@
       <c r="AI65" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -7524,32 +7529,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>56824867</v>
+        <v>56824855</v>
       </c>
       <c r="B66" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7559,10 +7564,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>684918</v>
+        <v>684831</v>
       </c>
       <c r="R66" t="n">
-        <v>7095587</v>
+        <v>7095817</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7609,11 +7614,6 @@
       <c r="AI66" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>asp</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>56824806</v>
+        <v>56824851</v>
       </c>
       <c r="B68" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7739,21 +7739,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7763,10 +7763,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>685621</v>
+        <v>684861</v>
       </c>
       <c r="R68" t="n">
-        <v>7095321</v>
+        <v>7095891</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>56824801</v>
+        <v>56824852</v>
       </c>
       <c r="B69" t="n">
         <v>80083</v>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>685577</v>
+        <v>684845</v>
       </c>
       <c r="R69" t="n">
-        <v>7095238</v>
+        <v>7095888</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>56824838</v>
+        <v>56824801</v>
       </c>
       <c r="B70" t="n">
-        <v>77929</v>
+        <v>80083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7953,21 +7953,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6487</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>685580</v>
+        <v>685577</v>
       </c>
       <c r="R70" t="n">
-        <v>7095719</v>
+        <v>7095238</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>törvedsstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>56824851</v>
+        <v>56824806</v>
       </c>
       <c r="B71" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8060,21 +8060,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8084,10 +8084,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>684861</v>
+        <v>685621</v>
       </c>
       <c r="R71" t="n">
-        <v>7095891</v>
+        <v>7095321</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -8156,10 +8156,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>56824852</v>
+        <v>56824838</v>
       </c>
       <c r="B72" t="n">
-        <v>80083</v>
+        <v>77929</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8167,21 +8167,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6487</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8191,10 +8191,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>684845</v>
+        <v>685580</v>
       </c>
       <c r="R72" t="n">
-        <v>7095888</v>
+        <v>7095719</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>törvedsstubbe</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -8904,10 +8904,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>87754483</v>
+        <v>56824810</v>
       </c>
       <c r="B79" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8915,37 +8915,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>684838</v>
+        <v>685462</v>
       </c>
       <c r="R79" t="n">
-        <v>7095823</v>
+        <v>7095229</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8972,12 +8969,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -8986,55 +8983,60 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY79" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>56824811</v>
+        <v>56824826</v>
       </c>
       <c r="B80" t="n">
-        <v>98361</v>
+        <v>78980</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9044,10 +9046,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>685373</v>
+        <v>685176</v>
       </c>
       <c r="R80" t="n">
-        <v>7095204</v>
+        <v>7095463</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9094,6 +9096,11 @@
       <c r="AI80" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -9111,10 +9118,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>56824810</v>
+        <v>56824817</v>
       </c>
       <c r="B81" t="n">
-        <v>78980</v>
+        <v>5492</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9122,21 +9129,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>101410</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9146,10 +9153,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>685462</v>
+        <v>685095</v>
       </c>
       <c r="R81" t="n">
-        <v>7095229</v>
+        <v>7095401</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9200,7 +9207,7 @@
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal tall</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -9218,10 +9225,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>56824826</v>
+        <v>56824865</v>
       </c>
       <c r="B82" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9229,21 +9236,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9253,10 +9260,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>685176</v>
+        <v>684847</v>
       </c>
       <c r="R82" t="n">
-        <v>7095463</v>
+        <v>7095566</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9307,7 +9314,7 @@
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>
@@ -9325,32 +9332,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>56824817</v>
+        <v>56824861</v>
       </c>
       <c r="B83" t="n">
-        <v>5492</v>
+        <v>80119</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>101410</v>
+        <v>6464</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9360,10 +9367,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>685095</v>
+        <v>684802</v>
       </c>
       <c r="R83" t="n">
-        <v>7095401</v>
+        <v>7095650</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9414,7 +9421,7 @@
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>gammal tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -9432,32 +9439,32 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>56824861</v>
+        <v>56824811</v>
       </c>
       <c r="B84" t="n">
-        <v>80119</v>
+        <v>98361</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9467,10 +9474,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>684802</v>
+        <v>685373</v>
       </c>
       <c r="R84" t="n">
-        <v>7095650</v>
+        <v>7095204</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9517,11 +9524,6 @@
       <c r="AI84" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr"/>
@@ -9539,10 +9541,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>56824865</v>
+        <v>87754483</v>
       </c>
       <c r="B85" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9550,34 +9552,37 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>684847</v>
+        <v>684838</v>
       </c>
       <c r="R85" t="n">
-        <v>7095566</v>
+        <v>7095823</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9604,12 +9609,12 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9618,88 +9623,71 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AI85" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY85" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>120279029</v>
+        <v>56824783</v>
       </c>
       <c r="B86" t="n">
-        <v>98361</v>
+        <v>95594</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>2809</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+          <t>(Hedw.) M.Fleisch.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Skog, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>685668</v>
+        <v>685894</v>
       </c>
       <c r="R86" t="n">
-        <v>7095162</v>
+        <v>7095123</v>
       </c>
       <c r="S86" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -9723,12 +9711,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9737,51 +9725,55 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Albin Larsson Ekström</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Albin Larsson Ekström</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>56824783</v>
+        <v>56824853</v>
       </c>
       <c r="B87" t="n">
-        <v>95594</v>
+        <v>80083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2809</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9791,10 +9783,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>685894</v>
+        <v>684837</v>
       </c>
       <c r="R87" t="n">
-        <v>7095123</v>
+        <v>7095870</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9841,6 +9833,11 @@
       <c r="AI87" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -9858,10 +9855,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>56824785</v>
+        <v>56824863</v>
       </c>
       <c r="B88" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9869,21 +9866,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9893,10 +9890,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>685889</v>
+        <v>684829</v>
       </c>
       <c r="R88" t="n">
-        <v>7095140</v>
+        <v>7095603</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9947,7 +9944,7 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -9965,10 +9962,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>56824863</v>
+        <v>56824785</v>
       </c>
       <c r="B89" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9976,21 +9973,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10000,10 +9997,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>684829</v>
+        <v>685889</v>
       </c>
       <c r="R89" t="n">
-        <v>7095603</v>
+        <v>7095140</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10054,7 +10051,7 @@
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -10072,48 +10069,60 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>56824853</v>
+        <v>120279029</v>
       </c>
       <c r="B90" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Skog, Ång</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>684837</v>
+        <v>685668</v>
       </c>
       <c r="R90" t="n">
-        <v>7095870</v>
+        <v>7095162</v>
       </c>
       <c r="S90" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -10137,12 +10146,12 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10151,28 +10160,19 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
-      </c>
-      <c r="AI90" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO90" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Albin Larsson Ekström</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Albin Larsson Ekström</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>56824872</v>
+        <v>56824856</v>
       </c>
       <c r="B97" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10838,21 +10838,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10862,10 +10862,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>684965</v>
+        <v>684829</v>
       </c>
       <c r="R97" t="n">
-        <v>7095699</v>
+        <v>7095792</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr"/>
@@ -10934,32 +10934,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>56824856</v>
+        <v>56824803</v>
       </c>
       <c r="B98" t="n">
-        <v>91263</v>
+        <v>80118</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10969,10 +10969,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>684829</v>
+        <v>685577</v>
       </c>
       <c r="R98" t="n">
-        <v>7095792</v>
+        <v>7095238</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="AO98" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT98" t="inlineStr"/>
@@ -11041,10 +11041,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>56824803</v>
+        <v>56824796</v>
       </c>
       <c r="B99" t="n">
-        <v>80118</v>
+        <v>80112</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11052,21 +11052,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11076,10 +11076,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>685577</v>
+        <v>685627</v>
       </c>
       <c r="R99" t="n">
-        <v>7095238</v>
+        <v>7095192</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11148,32 +11148,32 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>56824796</v>
+        <v>56824816</v>
       </c>
       <c r="B100" t="n">
-        <v>80112</v>
+        <v>78739</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6462</v>
+        <v>228912</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11183,10 +11183,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>685627</v>
+        <v>685106</v>
       </c>
       <c r="R100" t="n">
-        <v>7095192</v>
+        <v>7095395</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT100" t="inlineStr"/>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>56824816</v>
+        <v>56824872</v>
       </c>
       <c r="B101" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11266,21 +11266,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>685106</v>
+        <v>684965</v>
       </c>
       <c r="R101" t="n">
-        <v>7095395</v>
+        <v>7095699</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="AO101" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT101" t="inlineStr"/>

--- a/artfynd/Hötjärnberget artfynd.xlsx
+++ b/artfynd/Hötjärnberget artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56824857</v>
+        <v>56824827</v>
       </c>
       <c r="B2" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>684806</v>
+        <v>685176</v>
       </c>
       <c r="R2" t="n">
-        <v>7095721</v>
+        <v>7095463</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe omgärdade av 3 gammeltallar</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56824827</v>
+        <v>56824857</v>
       </c>
       <c r="B3" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>685176</v>
+        <v>684806</v>
       </c>
       <c r="R3" t="n">
-        <v>7095463</v>
+        <v>7095721</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>brandstubbe omgärdade av 3 gammeltallar</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1115,32 +1115,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56824824</v>
+        <v>56824870</v>
       </c>
       <c r="B6" t="n">
-        <v>80083</v>
+        <v>80043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>685178</v>
+        <v>684918</v>
       </c>
       <c r="R6" t="n">
-        <v>7095579</v>
+        <v>7095587</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56824870</v>
+        <v>56824869</v>
       </c>
       <c r="B7" t="n">
-        <v>80043</v>
+        <v>80119</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1233,21 +1233,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229497</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1329,32 +1329,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56824869</v>
+        <v>56824824</v>
       </c>
       <c r="B8" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>684918</v>
+        <v>685178</v>
       </c>
       <c r="R8" t="n">
-        <v>7095587</v>
+        <v>7095579</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56824800</v>
+        <v>56824820</v>
       </c>
       <c r="B10" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1554,21 +1554,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>685567</v>
+        <v>684971</v>
       </c>
       <c r="R10" t="n">
-        <v>7095234</v>
+        <v>7095609</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56824818</v>
+        <v>56824800</v>
       </c>
       <c r="B11" t="n">
         <v>78980</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>684974</v>
+        <v>685567</v>
       </c>
       <c r="R11" t="n">
-        <v>7095574</v>
+        <v>7095234</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56824820</v>
+        <v>56824818</v>
       </c>
       <c r="B12" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,21 +1768,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>684971</v>
+        <v>684974</v>
       </c>
       <c r="R12" t="n">
-        <v>7095609</v>
+        <v>7095574</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56824793</v>
+        <v>56824805</v>
       </c>
       <c r="B16" t="n">
         <v>80083</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>685627</v>
+        <v>685609</v>
       </c>
       <c r="R16" t="n">
-        <v>7095203</v>
+        <v>7095258</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56824805</v>
+        <v>56824793</v>
       </c>
       <c r="B17" t="n">
         <v>80083</v>
@@ -2328,10 +2328,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>685609</v>
+        <v>685627</v>
       </c>
       <c r="R17" t="n">
-        <v>7095258</v>
+        <v>7095203</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89046259</v>
+        <v>89046256</v>
       </c>
       <c r="B18" t="n">
-        <v>80043</v>
+        <v>92197</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2411,34 +2411,43 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>229497</v>
+        <v>4787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>Kühner &amp; Romagn.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>684835</v>
+        <v>684780</v>
       </c>
       <c r="R18" t="n">
-        <v>7095545</v>
+        <v>7095590</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2484,15 +2493,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>lövrik, luckig gammal barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AN18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>1 substratenheter # gammal sälg, 30 cm i diameter, lutande</t>
+          <t>gammal örtrik grannaturskog med gamla lövträd</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2628,10 +2629,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89046256</v>
+        <v>89046259</v>
       </c>
       <c r="B20" t="n">
-        <v>92197</v>
+        <v>80043</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2639,43 +2640,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4787</v>
+        <v>229497</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>684780</v>
+        <v>684835</v>
       </c>
       <c r="R20" t="n">
-        <v>7095590</v>
+        <v>7095545</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2721,7 +2713,15 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>gammal örtrik grannaturskog med gamla lövträd</t>
+          <t>lövrik, luckig gammal barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>1 substratenheter # gammal sälg, 30 cm i diameter, lutande</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2743,45 +2743,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89046260</v>
+        <v>56824840</v>
       </c>
       <c r="B21" t="n">
-        <v>91819</v>
+        <v>80119</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>760</v>
+        <v>6464</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hötjärnsbergets nordsida, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>684852</v>
+        <v>685646</v>
       </c>
       <c r="R21" t="n">
-        <v>7095559</v>
+        <v>7095420</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2827,62 +2827,55 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>lövrik, luckig gammal barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AN21" t="n">
-        <v>1</v>
+          <t>barrnaturskog</t>
+        </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal sälg, 25 cm i diameter</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56824840</v>
+        <v>56824836</v>
       </c>
       <c r="B22" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2892,10 +2885,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>685646</v>
+        <v>685530</v>
       </c>
       <c r="R22" t="n">
-        <v>7095420</v>
+        <v>7095541</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2964,10 +2957,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56824787</v>
+        <v>56824835</v>
       </c>
       <c r="B23" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2975,21 +2968,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2999,10 +2992,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>685792</v>
+        <v>685543</v>
       </c>
       <c r="R23" t="n">
-        <v>7095173</v>
+        <v>7095491</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3053,7 +3046,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3071,7 +3064,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56824836</v>
+        <v>56824787</v>
       </c>
       <c r="B24" t="n">
         <v>80083</v>
@@ -3106,10 +3099,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>685530</v>
+        <v>685792</v>
       </c>
       <c r="R24" t="n">
-        <v>7095541</v>
+        <v>7095173</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3178,45 +3171,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56824835</v>
+        <v>89046260</v>
       </c>
       <c r="B25" t="n">
-        <v>78980</v>
+        <v>91819</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>760</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Hötjärnsbergets nordsida, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>685543</v>
+        <v>684852</v>
       </c>
       <c r="R25" t="n">
-        <v>7095491</v>
+        <v>7095559</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3243,12 +3236,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3262,55 +3255,62 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
+          <t>lövrik, luckig gammal barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>1 substratenheter # gammal sälg, 25 cm i diameter</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56824871</v>
+        <v>56824833</v>
       </c>
       <c r="B26" t="n">
-        <v>98361</v>
+        <v>57657</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3320,10 +3320,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>684938</v>
+        <v>685325</v>
       </c>
       <c r="R26" t="n">
-        <v>7095610</v>
+        <v>7095451</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3370,6 +3370,11 @@
       <c r="AI26" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3387,32 +3392,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56824833</v>
+        <v>56824871</v>
       </c>
       <c r="B27" t="n">
-        <v>57657</v>
+        <v>98361</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3422,10 +3427,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>685325</v>
+        <v>684938</v>
       </c>
       <c r="R27" t="n">
-        <v>7095451</v>
+        <v>7095610</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3472,11 +3477,6 @@
       <c r="AI27" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3494,32 +3494,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56824834</v>
+        <v>56824790</v>
       </c>
       <c r="B28" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>685531</v>
+        <v>685634</v>
       </c>
       <c r="R28" t="n">
-        <v>7095430</v>
+        <v>7095215</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3579,6 +3579,11 @@
       <c r="AI28" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3596,10 +3601,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56824874</v>
+        <v>56824786</v>
       </c>
       <c r="B29" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3607,21 +3612,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3631,10 +3636,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>685011</v>
+        <v>685877</v>
       </c>
       <c r="R29" t="n">
-        <v>7095785</v>
+        <v>7095154</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3685,7 +3690,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3810,10 +3815,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56824790</v>
+        <v>56824874</v>
       </c>
       <c r="B31" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3821,21 +3826,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3845,10 +3850,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>685634</v>
+        <v>685011</v>
       </c>
       <c r="R31" t="n">
-        <v>7095215</v>
+        <v>7095785</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3899,7 +3904,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4024,32 +4029,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56824786</v>
+        <v>56824834</v>
       </c>
       <c r="B33" t="n">
-        <v>91263</v>
+        <v>92535</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4059,10 +4064,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>685877</v>
+        <v>685531</v>
       </c>
       <c r="R33" t="n">
-        <v>7095154</v>
+        <v>7095430</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4109,11 +4114,6 @@
       <c r="AI33" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4330,55 +4330,48 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56202571</v>
+        <v>56824837</v>
       </c>
       <c r="B36" t="n">
-        <v>56633</v>
+        <v>78980</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100045</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sångsvan</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cygnus cygnus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Övre Nyland, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>684943</v>
+        <v>685526</v>
       </c>
       <c r="R36" t="n">
-        <v>7095874</v>
+        <v>7095623</v>
       </c>
       <c r="S36" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4402,12 +4395,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4418,48 +4411,58 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56824795</v>
+        <v>56824788</v>
       </c>
       <c r="B37" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4469,10 +4472,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>685627</v>
+        <v>685755</v>
       </c>
       <c r="R37" t="n">
-        <v>7095192</v>
+        <v>7095204</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4541,7 +4544,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56824858</v>
+        <v>56824860</v>
       </c>
       <c r="B38" t="n">
         <v>80083</v>
@@ -4576,10 +4579,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>684801</v>
+        <v>684802</v>
       </c>
       <c r="R38" t="n">
-        <v>7095676</v>
+        <v>7095650</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4648,7 +4651,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56824876</v>
+        <v>56824858</v>
       </c>
       <c r="B39" t="n">
         <v>80083</v>
@@ -4683,10 +4686,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>685010</v>
+        <v>684801</v>
       </c>
       <c r="R39" t="n">
-        <v>7095847</v>
+        <v>7095676</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4755,7 +4758,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>56824788</v>
+        <v>56824876</v>
       </c>
       <c r="B40" t="n">
         <v>80083</v>
@@ -4790,10 +4793,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>685755</v>
+        <v>685010</v>
       </c>
       <c r="R40" t="n">
-        <v>7095204</v>
+        <v>7095847</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4862,48 +4865,55 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56824860</v>
+        <v>56202571</v>
       </c>
       <c r="B41" t="n">
-        <v>80083</v>
+        <v>56633</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>100045</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Sångsvan</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cygnus cygnus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Hötjärnberget, Övre Nyland, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>684802</v>
+        <v>684943</v>
       </c>
       <c r="R41" t="n">
-        <v>7095650</v>
+        <v>7095874</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4927,12 +4937,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4943,26 +4953,16 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5076,27 +5076,27 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56824837</v>
+        <v>56824795</v>
       </c>
       <c r="B43" t="n">
-        <v>78980</v>
+        <v>80118</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>685526</v>
+        <v>685627</v>
       </c>
       <c r="R43" t="n">
-        <v>7095623</v>
+        <v>7095192</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5392,32 +5392,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56824823</v>
+        <v>56824822</v>
       </c>
       <c r="B46" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>685044</v>
+        <v>685000</v>
       </c>
       <c r="R46" t="n">
-        <v>7095491</v>
+        <v>7095521</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5477,11 +5477,6 @@
       <c r="AI46" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5499,32 +5494,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56824822</v>
+        <v>56824829</v>
       </c>
       <c r="B47" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5534,10 +5529,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>685000</v>
+        <v>685219</v>
       </c>
       <c r="R47" t="n">
-        <v>7095521</v>
+        <v>7095463</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5584,6 +5579,11 @@
       <c r="AI47" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56824829</v>
+        <v>56824823</v>
       </c>
       <c r="B48" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5612,21 +5612,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>685219</v>
+        <v>685044</v>
       </c>
       <c r="R48" t="n">
-        <v>7095463</v>
+        <v>7095491</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -5708,32 +5708,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56824873</v>
+        <v>56824794</v>
       </c>
       <c r="B49" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>684964</v>
+        <v>685627</v>
       </c>
       <c r="R49" t="n">
-        <v>7095723</v>
+        <v>7095192</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5793,6 +5793,11 @@
       <c r="AI49" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -5810,32 +5815,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56824854</v>
+        <v>56824873</v>
       </c>
       <c r="B50" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5845,10 +5850,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>684838</v>
+        <v>684964</v>
       </c>
       <c r="R50" t="n">
-        <v>7095829</v>
+        <v>7095723</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5895,11 +5900,6 @@
       <c r="AI50" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -5917,32 +5917,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56824794</v>
+        <v>56824814</v>
       </c>
       <c r="B51" t="n">
-        <v>80083</v>
+        <v>98382</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>685627</v>
+        <v>685343</v>
       </c>
       <c r="R51" t="n">
-        <v>7095192</v>
+        <v>7095317</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6024,32 +6024,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56824814</v>
+        <v>56824854</v>
       </c>
       <c r="B52" t="n">
-        <v>98382</v>
+        <v>80083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>685343</v>
+        <v>684838</v>
       </c>
       <c r="R52" t="n">
-        <v>7095317</v>
+        <v>7095829</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6238,32 +6238,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56824804</v>
+        <v>56824862</v>
       </c>
       <c r="B54" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>685577</v>
+        <v>684797</v>
       </c>
       <c r="R54" t="n">
-        <v>7095238</v>
+        <v>7095623</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56824862</v>
+        <v>56824809</v>
       </c>
       <c r="B56" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6463,21 +6463,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>684797</v>
+        <v>685441</v>
       </c>
       <c r="R56" t="n">
-        <v>7095623</v>
+        <v>7095291</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -6559,32 +6559,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56824809</v>
+        <v>56824804</v>
       </c>
       <c r="B57" t="n">
-        <v>91263</v>
+        <v>80112</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>685441</v>
+        <v>685577</v>
       </c>
       <c r="R57" t="n">
-        <v>7095291</v>
+        <v>7095238</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -6778,32 +6778,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56824864</v>
+        <v>56824859</v>
       </c>
       <c r="B59" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6813,10 +6813,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>684829</v>
+        <v>684806</v>
       </c>
       <c r="R59" t="n">
-        <v>7095603</v>
+        <v>7095684</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6885,32 +6885,32 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>56824819</v>
+        <v>56824864</v>
       </c>
       <c r="B60" t="n">
-        <v>78738</v>
+        <v>80112</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6446</v>
+        <v>6462</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>684971</v>
+        <v>684829</v>
       </c>
       <c r="R60" t="n">
-        <v>7095609</v>
+        <v>7095603</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56824859</v>
+        <v>56824819</v>
       </c>
       <c r="B61" t="n">
-        <v>80083</v>
+        <v>78738</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7003,21 +7003,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7027,10 +7027,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>684806</v>
+        <v>684971</v>
       </c>
       <c r="R61" t="n">
-        <v>7095684</v>
+        <v>7095609</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>56824830</v>
+        <v>56824867</v>
       </c>
       <c r="B63" t="n">
         <v>80083</v>
@@ -7248,10 +7248,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>685248</v>
+        <v>684918</v>
       </c>
       <c r="R63" t="n">
-        <v>7095440</v>
+        <v>7095587</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -7320,32 +7320,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>56824867</v>
+        <v>56824855</v>
       </c>
       <c r="B64" t="n">
-        <v>80083</v>
+        <v>98361</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>684918</v>
+        <v>684831</v>
       </c>
       <c r="R64" t="n">
-        <v>7095587</v>
+        <v>7095817</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7405,11 +7405,6 @@
       <c r="AI64" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>asp</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -7427,32 +7422,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>56824875</v>
+        <v>56824830</v>
       </c>
       <c r="B65" t="n">
-        <v>96487</v>
+        <v>80083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2869</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7462,10 +7457,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>685024</v>
+        <v>685248</v>
       </c>
       <c r="R65" t="n">
-        <v>7095843</v>
+        <v>7095440</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7512,6 +7507,11 @@
       <c r="AI65" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -7529,32 +7529,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>56824855</v>
+        <v>56824875</v>
       </c>
       <c r="B66" t="n">
-        <v>98361</v>
+        <v>96487</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>684831</v>
+        <v>685024</v>
       </c>
       <c r="R66" t="n">
-        <v>7095817</v>
+        <v>7095843</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>56824868</v>
+        <v>87754500</v>
       </c>
       <c r="B74" t="n">
-        <v>80112</v>
+        <v>91256</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8388,34 +8388,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>684918</v>
+        <v>684863</v>
       </c>
       <c r="R74" t="n">
-        <v>7095587</v>
+        <v>7095572</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8442,12 +8445,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8456,38 +8459,33 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
-      </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY74" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>56824789</v>
+        <v>87754468</v>
       </c>
       <c r="B75" t="n">
-        <v>80119</v>
+        <v>91256</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8495,34 +8493,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6464</v>
+        <v>1205</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>685755</v>
+        <v>685442</v>
       </c>
       <c r="R75" t="n">
-        <v>7095204</v>
+        <v>7095261</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8549,12 +8550,12 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8563,28 +8564,19 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
-      </c>
-      <c r="AI75" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
@@ -8698,10 +8690,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87754500</v>
+        <v>56824868</v>
       </c>
       <c r="B77" t="n">
-        <v>91256</v>
+        <v>80112</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8709,37 +8701,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>684863</v>
+        <v>684918</v>
       </c>
       <c r="R77" t="n">
-        <v>7095572</v>
+        <v>7095587</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8766,12 +8755,12 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8780,33 +8769,38 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY77" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>87754468</v>
+        <v>56824789</v>
       </c>
       <c r="B78" t="n">
-        <v>91256</v>
+        <v>80119</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8814,37 +8808,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1205</v>
+        <v>6464</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>685442</v>
+        <v>685755</v>
       </c>
       <c r="R78" t="n">
-        <v>7095261</v>
+        <v>7095204</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8871,12 +8862,12 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8885,51 +8876,60 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>56824810</v>
+        <v>56824811</v>
       </c>
       <c r="B79" t="n">
-        <v>78980</v>
+        <v>98361</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8939,10 +8939,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>685462</v>
+        <v>685373</v>
       </c>
       <c r="R79" t="n">
-        <v>7095229</v>
+        <v>7095204</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8989,11 +8989,6 @@
       <c r="AI79" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -9011,10 +9006,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>56824826</v>
+        <v>56824817</v>
       </c>
       <c r="B80" t="n">
-        <v>78980</v>
+        <v>5492</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9022,21 +9017,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>101410</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9046,10 +9041,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>685176</v>
+        <v>685095</v>
       </c>
       <c r="R80" t="n">
-        <v>7095463</v>
+        <v>7095401</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9100,7 +9095,7 @@
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal tall</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -9118,10 +9113,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>56824817</v>
+        <v>56824865</v>
       </c>
       <c r="B81" t="n">
-        <v>5492</v>
+        <v>80083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9129,21 +9124,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>101410</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9153,10 +9148,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>685095</v>
+        <v>684847</v>
       </c>
       <c r="R81" t="n">
-        <v>7095401</v>
+        <v>7095566</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9207,7 +9202,7 @@
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>gammal tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -9225,32 +9220,32 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>56824865</v>
+        <v>56824861</v>
       </c>
       <c r="B82" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9260,10 +9255,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>684847</v>
+        <v>684802</v>
       </c>
       <c r="R82" t="n">
-        <v>7095566</v>
+        <v>7095650</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9314,7 +9309,7 @@
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>
@@ -9332,32 +9327,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>56824861</v>
+        <v>56824810</v>
       </c>
       <c r="B83" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9367,10 +9362,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>684802</v>
+        <v>685462</v>
       </c>
       <c r="R83" t="n">
-        <v>7095650</v>
+        <v>7095229</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9421,7 +9416,7 @@
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -9439,32 +9434,32 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>56824811</v>
+        <v>56824826</v>
       </c>
       <c r="B84" t="n">
-        <v>98361</v>
+        <v>78980</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9474,10 +9469,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>685373</v>
+        <v>685176</v>
       </c>
       <c r="R84" t="n">
-        <v>7095204</v>
+        <v>7095463</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9524,6 +9519,11 @@
       <c r="AI84" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr"/>
@@ -9646,32 +9646,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>56824783</v>
+        <v>56824785</v>
       </c>
       <c r="B86" t="n">
-        <v>95594</v>
+        <v>91263</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2809</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9681,10 +9681,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>685894</v>
+        <v>685889</v>
       </c>
       <c r="R86" t="n">
-        <v>7095123</v>
+        <v>7095140</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9731,6 +9731,11 @@
       <c r="AI86" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -9962,32 +9967,32 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>56824785</v>
+        <v>56824783</v>
       </c>
       <c r="B89" t="n">
-        <v>91263</v>
+        <v>95594</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5432</v>
+        <v>2809</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9997,10 +10002,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>685889</v>
+        <v>685894</v>
       </c>
       <c r="R89" t="n">
-        <v>7095140</v>
+        <v>7095123</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10047,11 +10052,6 @@
       <c r="AI89" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO89" t="inlineStr">
-        <is>
-          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -10179,32 +10179,32 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>56824815</v>
+        <v>56824792</v>
       </c>
       <c r="B91" t="n">
-        <v>80083</v>
+        <v>80118</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10214,10 +10214,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>685221</v>
+        <v>685634</v>
       </c>
       <c r="R91" t="n">
-        <v>7095364</v>
+        <v>7095215</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10286,32 +10286,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>56824792</v>
+        <v>56824815</v>
       </c>
       <c r="B92" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10321,10 +10321,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>685634</v>
+        <v>685221</v>
       </c>
       <c r="R92" t="n">
-        <v>7095215</v>
+        <v>7095364</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10601,55 +10601,48 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>54419611</v>
+        <v>56824784</v>
       </c>
       <c r="B95" t="n">
-        <v>56633</v>
+        <v>82792</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100045</v>
+        <v>1312</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sångsvan</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Cygnus cygnus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Lapptjärn, Övre Nyland, Ång</t>
+          <t>Hötjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>684981</v>
+        <v>685882</v>
       </c>
       <c r="R95" t="n">
-        <v>7095879</v>
+        <v>7095130</v>
       </c>
       <c r="S95" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -10673,27 +10666,12 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>09:30</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
-        </is>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>2 vuxna och 3 ungar</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10704,64 +10682,81 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>gammal gran</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>56824784</v>
+        <v>54419611</v>
       </c>
       <c r="B96" t="n">
-        <v>82792</v>
+        <v>56633</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1312</v>
+        <v>100045</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Sångsvan</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cygnus cygnus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Hötjärnberget, Ång</t>
+          <t>Lapptjärn, Övre Nyland, Ång</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>685882</v>
+        <v>684981</v>
       </c>
       <c r="R96" t="n">
-        <v>7095130</v>
+        <v>7095879</v>
       </c>
       <c r="S96" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10785,12 +10780,27 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-07-15</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-07-15</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>2 vuxna och 3 ungar</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10801,36 +10811,26 @@
       </c>
       <c r="AG96" t="b">
         <v>0</v>
-      </c>
-      <c r="AI96" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO96" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>56824856</v>
+        <v>56824816</v>
       </c>
       <c r="B97" t="n">
-        <v>91263</v>
+        <v>78739</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10838,21 +10838,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5432</v>
+        <v>228912</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10862,10 +10862,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>684829</v>
+        <v>685106</v>
       </c>
       <c r="R97" t="n">
-        <v>7095792</v>
+        <v>7095395</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr"/>
@@ -10934,32 +10934,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>56824803</v>
+        <v>56824856</v>
       </c>
       <c r="B98" t="n">
-        <v>80118</v>
+        <v>91263</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10969,10 +10969,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>685577</v>
+        <v>684829</v>
       </c>
       <c r="R98" t="n">
-        <v>7095238</v>
+        <v>7095792</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="AO98" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT98" t="inlineStr"/>
@@ -11041,32 +11041,32 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>56824796</v>
+        <v>56824872</v>
       </c>
       <c r="B99" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11076,10 +11076,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>685627</v>
+        <v>684965</v>
       </c>
       <c r="R99" t="n">
-        <v>7095192</v>
+        <v>7095699</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="AO99" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT99" t="inlineStr"/>
@@ -11148,32 +11148,32 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>56824816</v>
+        <v>56824803</v>
       </c>
       <c r="B100" t="n">
-        <v>78739</v>
+        <v>80118</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>228912</v>
+        <v>6463</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11183,10 +11183,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>685106</v>
+        <v>685577</v>
       </c>
       <c r="R100" t="n">
-        <v>7095395</v>
+        <v>7095238</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT100" t="inlineStr"/>
@@ -11255,32 +11255,32 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>56824872</v>
+        <v>56824796</v>
       </c>
       <c r="B101" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>684965</v>
+        <v>685627</v>
       </c>
       <c r="R101" t="n">
-        <v>7095699</v>
+        <v>7095192</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="AO101" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT101" t="inlineStr"/>
